--- a/prac/Szkoły.xlsx
+++ b/prac/Szkoły.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="P-LA" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,11 +22,6 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SP!$A$6:$F$6</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">SPG!$A$6:$F$6</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">ZKPiG!$A$6:$F$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'P-LA'!$A$6:$F$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SP!$A$6:$F$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">ZKPiG!$A$6:$F$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'LO+ZSO'!$A$6:$F$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">SPG!$A$6:$F$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1629,9 +1624,9 @@
     <t xml:space="preserve">ZESPOŁY KSZTAŁCENIA PODSTAWOWEGO, PRZEDSZKOLNEGO, GIMNAZJALNEGO - 2017/2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Kształcenia Podstawowego i Przedszkolnego nr 1 
-- Przedszkole nr 61
-- Szkoła Podstawowa nr 87</t>
+    <t xml:space="preserve">Zespół Kształcenia Podstawowego i Przedszkolnego nr 1  
+- Przedszkole nr 61 
+- Szkoła Podstawowa nr 87 </t>
   </si>
   <si>
     <t xml:space="preserve">80-680 Gdańsk
@@ -1645,9 +1640,10 @@
     <t xml:space="preserve">Elżbieta Głomska</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkolno - Przedszkolny nr 1
-- Szkoła Podstawowa nr 76 im. Jarosława Dąbrowskiego
-- Przedszkole Specjalne nr 72 o Profilu Terapeutycznym</t>
+    <t xml:space="preserve">Zespół Szkolno 
+- Przedszkolny nr 1 
+- Szkoła Podstawowa nr 76 im. Jarosława Dąbrowskiego 
+- Przedszkole Specjalne nr 72 o Profilu Terapeutycznym </t>
   </si>
   <si>
     <t xml:space="preserve">80-371 Gdańsk
@@ -1660,9 +1656,9 @@
     <t xml:space="preserve">Iwona Makurat</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Kształcenia Podstawowego i Gimnazjalnego nr 33
-- Szkola Podstawowa dla Doroslych
-- Gimnazjum Przysposabiające do Pracy
+    <t xml:space="preserve">Zespół Kształcenia Podstawowego i Gimnazjalnego nr 33 
+- Szkola Podstawowa dla Doroslych 
+- Gimnazjum Przysposabiające do Pracy 
 - SMS nr 2</t>
   </si>
   <si>
@@ -1684,10 +1680,9 @@
     <t xml:space="preserve">ZESPOŁY SZKÓŁ OGÓLNOKSZTAŁCĄCYCH I LICEA OGÓLNOKSZTAŁCĄCE - 2017/2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Sportowych i Ogólnoksztalcących
-- Szkoła Podstawowa nr 75 im. Janusza Kusocińskiego
-- XII Liceum Ogólnokształcące z Oddziałami Sportowymi
-</t>
+    <t xml:space="preserve">Zespół Szkół Sportowych i Ogólnoksztalcących 
+- Szkoła Podstawowa nr 75 im. Janusza Kusocińskiego 
+- XII Liceum Ogólnokształcące z Oddziałami Sportowymi </t>
   </si>
   <si>
     <t xml:space="preserve">80-354 Gdańsk
@@ -1700,17 +1695,17 @@
     <t xml:space="preserve">Irena Adamowska</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Mistrzostwa Sportowego
-- Szkoła Podstawowa Mistrzostwa Sportowego nr 93
-- XI Liceum Ogólnokształcące SMS</t>
+    <t xml:space="preserve">Zespół Szkół Mistrzostwa Sportowego 
+- Szkoła Podstawowa Mistrzostwa Sportowego nr 93 
+- XI Liceum Ogólnokształcące SMS </t>
   </si>
   <si>
     <t xml:space="preserve">Ewa Leyk-Latowska</t>
   </si>
   <si>
-    <t xml:space="preserve">Ogólnoksztalcące Szkoly Sportowe
-- XXI Sportowe Liceum Ogólnokształcące
-- Gimnazjum nr 21 im. Dziedzictwa Pontyfikatu Jana Pawła II</t>
+    <t xml:space="preserve">Ogólnoksztalcące Szkoly Sportowe 
+- XXI Sportowe Liceum Ogólnokształcące 
+- Gimnazjum nr 21 im. Dziedzictwa Pontyfikatu Jana Pawła II </t>
   </si>
   <si>
     <t xml:space="preserve">80-396 Gdańsk
@@ -1723,8 +1718,8 @@
     <t xml:space="preserve">Bożena Filimoniuk</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 1
-- IX Liceum Ogólnokształcące im. Krzysztofa Kolbergera</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 1 
+- IX Liceum Ogólnokształcące im. Krzysztofa Kolbergera </t>
   </si>
   <si>
     <t xml:space="preserve">80-271 Gdańsk
@@ -1738,9 +1733,9 @@
     <t xml:space="preserve">Małgorzata Solowska</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 2
-- Szkoła Podstawowa nr 33 im. Stefana Banacha
-- XXIV Liceum Ogólnokształcące im. Stefana Banacha</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 2 
+- Szkoła Podstawowa nr 33 im. Stefana Banacha 
+- XXIV Liceum Ogólnokształcące im. Stefana Banacha </t>
   </si>
   <si>
     <t xml:space="preserve">80-299 Gdańsk
@@ -1753,8 +1748,8 @@
     <t xml:space="preserve">Marzena Majerowska</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 5
-- IV Liceum Ogólnokształcące im. Wojsk Ochrony Pogranicza</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 5 
+- IV Liceum Ogólnokształcące im. Wojsk Ochrony Pogranicza </t>
   </si>
   <si>
     <t xml:space="preserve">80-546 Gdańsk
@@ -1768,9 +1763,9 @@
     <t xml:space="preserve">Elżbieta Januszewska</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 6
-- Szkoła Podstawowa Mistrzostwa Sportowego nr 94
-- VI Liceum Ogólnokształcące</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 6 
+- Szkoła Podstawowa Mistrzostwa Sportowego nr 94 
+- VI Liceum Ogólnokształcące </t>
   </si>
   <si>
     <t xml:space="preserve">80-759 Gdańsk
@@ -1787,9 +1782,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 7
-- Szkoła Podstawowa nr 3 im. Jana Pawła II
-- VII Liceum Ogólnokształcące im. Józefa Wybickiego</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 7 
+- Szkoła Podstawowa nr 3 im. Jana Pawła II 
+- VII Liceum Ogólnokształcące im. Józefa Wybickiego </t>
   </si>
   <si>
     <t xml:space="preserve">80-809 Gdańsk
@@ -1802,8 +1797,8 @@
     <t xml:space="preserve">Marcin Hintz</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 8
-- Szkoła Podstawowa nr 5 im. Jana Pawła II
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 8 
+- Szkoła Podstawowa nr 5 im. Jana Pawła II 
 - XIV Liceum Ogólnokształcące im. Jana Pawła II</t>
   </si>
   <si>
@@ -1817,9 +1812,9 @@
     <t xml:space="preserve">Agnieszka Tomasik</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 10 im. Eugeniusza Kwiatkowskiego
-- Szkoła Podstawowa nr 18
-- XXIII Liceum Ogólnokształcące</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 10 im. Eugeniusza Kwiatkowskiego 
+- Szkoła Podstawowa nr 18 
+- XXIII Liceum Ogólnokształcące </t>
   </si>
   <si>
     <t xml:space="preserve">58 342 92 83</t>
@@ -1828,8 +1823,8 @@
     <t xml:space="preserve">Aleksandra Masalon</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 12
-- XX  Liceum Ogólnokształcące im. Zbigniewa Herberta</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 12 
+- XX  Liceum Ogólnokształcące im. Zbigniewa Herberta </t>
   </si>
   <si>
     <t xml:space="preserve">80-287 Gdańsk
@@ -1846,8 +1841,8 @@
     <t xml:space="preserve">Bożena Kondratiuk</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 13
-- III  Liceum Ogólnokształcące im. Bohaterów Westerplatte</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnokształcących nr 13 
+- III  Liceum Ogólnokształcące im. Bohaterów Westerplatte </t>
   </si>
   <si>
     <t xml:space="preserve">80-255 Gdańsk
@@ -1860,7 +1855,7 @@
     <t xml:space="preserve">Bożena Ordak</t>
   </si>
   <si>
-    <t xml:space="preserve">I Liceum Ogólnokształcące im. Mikołaja Kopernika</t>
+    <t xml:space="preserve">I Liceum Ogólnokształcące im. Mikołaja Kopernika </t>
   </si>
   <si>
     <t xml:space="preserve">80-855 Gdańsk
@@ -2076,8 +2071,8 @@
     <t xml:space="preserve">Mirosław Sreberski</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Łączności im. Obrońców Poczty Polskiej
-- Technikum nr 4 im. Obrońców Poczty Polskiej</t>
+    <t xml:space="preserve">Zespół Szkół Łączności im. Obrońców Poczty Polskiej 
+- Technikum nr 4 im. Obrońców Poczty Polskiej </t>
   </si>
   <si>
     <t xml:space="preserve">80-845 Gdańsk
@@ -2090,8 +2085,8 @@
     <t xml:space="preserve">Jadwiga Piechowiak</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Morskich im. Bohaterskich Obrońców Westerplatte
-- Technikum nr 16</t>
+    <t xml:space="preserve">Zespół Szkół Morskich im. Bohaterskich Obrońców Westerplatte 
+- Technikum nr 16 </t>
   </si>
   <si>
     <t xml:space="preserve">80-537 Gdańsk
@@ -2104,10 +2099,10 @@
     <t xml:space="preserve">Hanna Szkodo</t>
   </si>
   <si>
-    <t xml:space="preserve">Szkoły Okrętowe i Ogólnokształcące CONRADINUM
-- XVIII Liceum Ogólnokształcące
-- Technikum nr 18
-- Branżowa Szkoła I stopnia nr 18 </t>
+    <t xml:space="preserve">Szkoły Okrętowe i Ogólnokształcące CONRADINUM 
+- XVIII Liceum Ogólnokształcące 
+- Technikum nr 18 
+- Branżowa Szkoła I stopnia nr 18  </t>
   </si>
   <si>
     <t xml:space="preserve">80-218 Gdańsk
@@ -2121,10 +2116,10 @@
     <t xml:space="preserve">Anna Wasilewska</t>
   </si>
   <si>
-    <t xml:space="preserve">Państwowe Szkoły Budownictwa im. prof. Mariana Osińskiego
-- Technikum nr 5
-- Branżowa Szkoła I stopnia nr 5
-- Szkoła Policealna dla  Dorosłych nr 5</t>
+    <t xml:space="preserve">Państwowe Szkoły Budownictwa im. prof. Mariana Osińskiego 
+- Technikum nr 5 
+- Branżowa Szkoła I stopnia nr 5 
+- Szkoła Policealna dla  Dorosłych nr 5 </t>
   </si>
   <si>
     <t xml:space="preserve">80-266 Gdańsk
@@ -2137,14 +2132,14 @@
     <t xml:space="preserve">Renata Wypasek</t>
   </si>
   <si>
-    <t xml:space="preserve">Centrum Ksztalcenia Zawodowego i Ustawicznego nr 1
-- Technikum nr 2
-- Branżowa Szkoła I stopnia nr 2
-- I Liceum Ogólnoksztalcące dla Doroslych
-- Szkoła Policealna dla Dorosłych nr 1
-- Centrum Kształcenia Praktycznego nr 1
-- Centrum Kształcenia Ustawicznego  im. marszałka Józefa Piłsudskiego
-- Gdańska Akademia Seniora</t>
+    <t xml:space="preserve">Centrum Ksztalcenia Zawodowego i Ustawicznego nr 1 
+- Technikum nr 2 
+- Branżowa Szkoła I stopnia nr 2 
+- I Liceum Ogólnoksztalcące dla Doroslych 
+- Szkoła Policealna dla Dorosłych nr 1 
+- Centrum Kształcenia Praktycznego nr 1 
+- Centrum Kształcenia Ustawicznego  im. marszałka Józefa Piłsudskiego 
+- Gdańska Akademia Seniora </t>
   </si>
   <si>
     <t xml:space="preserve">80-426 Gdańsk
@@ -2157,11 +2152,11 @@
     <t xml:space="preserve">Dariusz Różycki</t>
   </si>
   <si>
-    <t xml:space="preserve">Centrum Kształcenia Zawodowego i Ustawicznego nr 2
-- Technikum nr 14
-- Szkoła Policealna dla Dorosłych nr 14
-- Technikum nr 8
-- Branżowa Szkoła I stopnia nr 8</t>
+    <t xml:space="preserve">Centrum Kształcenia Zawodowego i Ustawicznego nr 2 
+- Technikum nr 14 
+- Szkoła Policealna dla Dorosłych nr 14 
+- Technikum nr 8 
+- Branżowa Szkoła I stopnia nr 8 </t>
   </si>
   <si>
     <t xml:space="preserve">80-058 Gdańsk
@@ -2281,11 +2276,11 @@
     <t xml:space="preserve">Monika Gołubiew-Konieczna</t>
   </si>
   <si>
-    <t xml:space="preserve">Gdański Zespół Schronisk i Sportu Szkolnego
-- Szkolne Schronisko Młodzieżowe z filiami
-- filia nr 1, ul. Wałowa 21 (58 301 23 13)
-- filia nr 2, ul. Kartuska 245B (58 302 60 44)
--Gdański Ośrodek Kultury Fizycznej</t>
+    <t xml:space="preserve">Gdański Zespół Schronisk i Sportu Szkolnego 
+- Szkolne Schronisko Młodzieżowe z filiami 
+- filia nr 1, ul. Wałowa 21 (58 301 23 13) 
+- filia nr 2, ul. Kartuska 245B (58 302 60 44) 
+-Gdański Ośrodek Kultury Fizycznej </t>
   </si>
   <si>
     <t xml:space="preserve">80-314 Gdańsk
@@ -2418,9 +2413,9 @@
     <t xml:space="preserve">Lucyna Miniewicz</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Ogólnoksztalcacych nr 9
-- Szkoła Podstawowa nr 91
-- XXV Liceum Ogólnokształcące</t>
+    <t xml:space="preserve">Zespół Szkół Ogólnoksztalcacych nr 9 
+ - Szkoła Podstawowa nr 91 
+ - XXV Liceum Ogólnokształcące </t>
   </si>
   <si>
     <t xml:space="preserve">80-282 Gdańsk
@@ -2434,7 +2429,7 @@
     <t xml:space="preserve">Tadeusz Okrój</t>
   </si>
   <si>
-    <t xml:space="preserve">Branżowa Szkoła Specjalna I stopnia nr 19 im. Stefana Batorego</t>
+    <t xml:space="preserve">Branżowa Szkoła Specjalna I stopnia nr 19 im. Stefana Batorego </t>
   </si>
   <si>
     <t xml:space="preserve">80-251 Gdańsk
@@ -2447,9 +2442,9 @@
     <t xml:space="preserve">Elżbieta Paprocka - Levano</t>
   </si>
   <si>
-    <t xml:space="preserve">Zespół Szkół Specjalnych nr 2
-- Szkoła Specjalna Przysposabiająca do Pracy nr 2 im. św.Matki Teresy z Kalkuty
-- Branżowa Szkoła Specjalna I Stopnia nr 20  im. św.Matki Teresy z Kalkuty</t>
+    <t xml:space="preserve">Zespół Szkół Specjalnych nr 2 
+ - Szkoła Specjalna Przysposabiająca do Pracy nr 2 im. św.Matki Teresy z Kalkuty 
+ - Branżowa Szkoła Specjalna I Stopnia nr 20  im. św.Matki Teresy z Kalkuty </t>
   </si>
   <si>
     <t xml:space="preserve">80-312 Gdańsk
@@ -2475,10 +2470,10 @@
     <t xml:space="preserve">Małgorzata Rybicka</t>
   </si>
   <si>
-    <t xml:space="preserve">Specjalny Ośrodek Szkolno-Wychowawczy nr 2
-- Przedszkole Specjalne nr 78
-- Szkoła Podstawowa Specjalna nr 78
-- Szkoła Specjalna Przysposabiająca do Pracy nr 1</t>
+    <t xml:space="preserve">Specjalny Ośrodek Szkolno-Wychowawczy nr 2 
+ - Przedszkole Specjalne nr 78 
+ - Szkoła Podstawowa Specjalna nr 78 
+ - Szkoła Specjalna Przysposabiająca do Pracy nr 1 </t>
   </si>
   <si>
     <t xml:space="preserve">80-544 Gdańsk
@@ -2627,11 +2622,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2752,26 +2743,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2859,1171 +2830,1171 @@
   </sheetPr>
   <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5:R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+      <c r="A51" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+      <c r="A53" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+      <c r="A55" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="11" t="n">
+      <c r="E55" s="10" t="n">
         <v>518777082</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E56" s="10" t="n">
         <v>789118418</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
+      <c r="A57" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
+      <c r="A59" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+      <c r="A61" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4050,1169 +4021,1169 @@
   </sheetPr>
   <dimension ref="A3:M62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O24" activeCellId="1" sqref="O5:R5 O24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="A15" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="A17" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+      <c r="A18" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+      <c r="A19" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="A20" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="A22" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+      <c r="A23" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+      <c r="A24" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
+      <c r="A25" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
+      <c r="A26" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+      <c r="A27" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+      <c r="A28" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
+      <c r="A29" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+      <c r="A30" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+      <c r="A31" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="n">
+      <c r="A32" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+      <c r="A33" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="A34" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="A36" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="A38" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+      <c r="A40" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="n">
+      <c r="A41" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="n">
+      <c r="A42" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="n">
+      <c r="A43" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="n">
+      <c r="A44" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="n">
+      <c r="A45" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+      <c r="A46" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="n">
+      <c r="A47" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="n">
+      <c r="A48" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="M48" s="25"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+      <c r="A49" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="M49" s="25"/>
+      <c r="M49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="n">
+      <c r="A50" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="M50" s="25"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="n">
+      <c r="A51" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="M51" s="25"/>
+      <c r="M51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="n">
+      <c r="A52" s="16" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="22" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="n">
+      <c r="A53" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="n">
+      <c r="A54" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="22" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="n">
+      <c r="A55" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="22" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="n">
+      <c r="A56" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="n">
+      <c r="A57" s="16" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="22" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="n">
+      <c r="A58" s="16" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="19" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="n">
+      <c r="A59" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="22" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="n">
+      <c r="A60" s="16" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="19" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
+      <c r="A61" s="16" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="19" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26" t="n">
+      <c r="A62" s="25" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="22" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5240,104 +5211,104 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="O5:R5 H7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="n">
+      <c r="A7" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5361,435 +5332,435 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="O5:R5 J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="44.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="29" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="29" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="29" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="29" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="44.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="28" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="n">
+    <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="19" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="n">
+      <c r="A8" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="19" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="n">
+    <row r="9" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="n">
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="n">
+    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="19" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="19" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="n">
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="28" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="n">
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="19" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="n">
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="16" s="35" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="n">
+    <row r="16" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="17" s="35" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="n">
+    <row r="17" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" s="35" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="n">
+    <row r="18" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="n">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="19" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="n">
+      <c r="A20" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="19" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="n">
+      <c r="A21" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="19" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="n">
+      <c r="A22" s="25" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="n">
+      <c r="A23" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="n">
+      <c r="A24" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="19" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="n">
+      <c r="A25" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="19" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5816,284 +5787,284 @@
   </sheetPr>
   <dimension ref="A3:F18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="1" sqref="O5:R5 L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="n">
+      <c r="A7" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="32" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="n">
+      <c r="A8" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="32" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="n">
+      <c r="A9" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="32" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="n">
+      <c r="A10" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="33" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="n">
+      <c r="A11" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="32" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="n">
+      <c r="A12" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="32" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="n">
+    <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="34" t="s">
         <v>606</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="32" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="n">
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="32" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="n">
+    <row r="15" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="34" t="s">
         <v>614</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="32" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="n">
+      <c r="A16" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="32" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="191.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="n">
+      <c r="A17" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="32" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="n">
+    <row r="18" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="32" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6121,244 +6092,244 @@
   <dimension ref="A3:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P15" activeCellId="1" sqref="O5:R5 P15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="35" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="n">
+      <c r="A7" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="n">
+      <c r="A8" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="n">
+      <c r="A9" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="n">
+      <c r="A10" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="n">
+      <c r="A11" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="n">
+      <c r="A12" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="n">
+      <c r="A13" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="n">
+      <c r="A14" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="n">
+    <row r="15" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="O15" s="35"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="n">
+      <c r="A16" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>667</v>
       </c>
     </row>
@@ -6380,8 +6351,8 @@
   </sheetPr>
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="O5:R5 A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6390,302 +6361,302 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="42" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" s="28" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="6" s="35" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" s="28" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>678</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="32" t="s">
         <v>680</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>683</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="13" s="35" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" s="28" customFormat="true" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>706</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="32" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="true" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="32" t="s">
         <v>712</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="32" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="true" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" customFormat="false" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>721</v>
       </c>
     </row>
